--- a/Inputs/Daman/info.xlsx
+++ b/Inputs/Daman/info.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
   <si>
-    <t xml:space="preserve">residencyCount</t>
-  </si>
-  <si>
     <t xml:space="preserve">residencies</t>
   </si>
   <si>
@@ -46,7 +43,7 @@
     <t xml:space="preserve">Daman</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Dubai</t>
+    <t xml:space="preserve">Dubai/</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
@@ -65,6 +62,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,16 +152,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.84"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -175,40 +170,34 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>3.6725</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3.6725</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
